--- a/biology/Botanique/Haricot_(homonymie)/Haricot_(homonymie).xlsx
+++ b/biology/Botanique/Haricot_(homonymie)/Haricot_(homonymie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -515,7 +527,9 @@
           <t>Caractéristiques communes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les points communs des différents genres de Fabaceae, usuellement confondus sous le nom de « haricot », sont les suivants :
 ce sont des plantes herbacées annuelles à port grimpant ou nain,
@@ -553,39 +567,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">genre Phaseolus
-Haricot commun
-Le haricot commun (Phaseolus vulgaris) est une espèce de plantes annuelle, originaire d'Amérique centrale et d'Amérique du Sud. Couramment cultivée, il joue un rôle important dans l'alimentation humaine comme source d'amidon (féculent) et de protéines. Le terme « haricot » désigne aussi ces parties consommées, les graines (haricots secs) ou les gousses, appelées alors haricot vert ou « mange-tout ».
-Haricot d'Espagne
-Le haricot d'Espagne  (Phaseolus coccineus) est une plante herbacée vivace cultivée comme fleur de jardin, appréciée pour ses fleurs rouge écarlate s'épanouissant en été, ou pour certaines variétés comme légume pour leurs graines comestibles.
-Haricot de Lima
-Le haricot de Lima (Phaseolus lunatus) est une plante herbacée annuelle cultivée dans les pays chauds pour ses graines consommées comme légume à l'instar du haricot commun.
-Haricot tépari
-Le haricot tépari (Phaseolus acutifolius) est une plante herbacée de milieux secs, originaire du sud de l'Amérique du Nord et cultivé depuis  l'époque précolombienne par les populations amérindiennnes à des fins alimentaires et fourragères.
-genre Vigna
-Haricot à l’œil noir, niébé
-Le haricot à l’œil noir ou niébé[1] est une plante annuelle ou vivace, du genre Vigna originaire d'Afrique tropicale, dont plusieurs sous-espèces sont cultivées comme plantes alimentaires pour leurs graines, proches des haricots, ou pour leurs gousses.
-Haricot adzuki
-Le haricot adzuki (Vigna angularis) est une plante annuelle grimpante largement cultivée en Asie orientale pour ses graines comestibles. C'est l'une des espèces de haricots rouges les plus savoureuses et les plus consommées tant en cuisine qu'en pâtisserie asiatique.
-Haricot caracolle
-Le haricot caracolle (Vigna caracalla) est une plante grimpante originaire des régions tropicales d'Amérique centrale et d'Amérique du Sud, cultivée à des fins ornementales.
-Haricot-kilomètre
-La haricot kilomètre (Vigna unguiculata subsp. sesquipedalis) est une plante herbacée grimpante, cultivées comme plante potagère pour ses gousses et graines comestibles. Elle peut être plantée avec le maïs qui lui sert de tuteur.
-Haricot mat
-Le haricot mat, ou haricot papillon (Vigna aconitifolia), est une plante annuelle résistant à la sécheresse. Cette plante herbacée, aux petites fleurs jaunes et aux feuilles profondément lobées, est cultivée dans les régions arides de l'Asie méridionale pour ses minuscules graines comestibles, dont la couleur varie du brun clair au brun rougeâtre foncé.
-Haricot mungo
-Le haricot mungo, ou ambérique vert (Vigna radiata), est une plante annuelle originaire du sous-continent indien et cultivée comme plante potagère pour ses graines consommées comme légume à l'instar du haricot commun. C'est un ingrédient courant de la cuisine chinoise.
-Haricot riz
-Le haricot riz (Vigna umbellata) est une plante herbacée  originaire d'Asie tropicale, cultivée notamment en Chine pour ses petites graines à des fins alimentaires.
-Haricot urd
-Le haricot urd (Vigna mungo) est une plante cultivée en Asie méridionale. Elle est largement utilisée pour préparer le dal à partir des graines décortiquées, entières ou cassées.
-Autres genres
-Haricot sabre
-Le haricot sabre (Canavalia gladiata) est une plante cultivée dans les régions tropicales et subtropicales d'Afrique et d'Asie. Ses gousses vertes et ses graines immatures sont consommées comme légumes cuits.
-Haricot ailé
-Le haricot ailé, ou pois carré (Psophocarpus tetragonolobus), est une espèce de plante tropicale originaire de  Papouasie-Nouvelle-Guinée. Elle pousse abondamment dans les zones équatoriales chaudes et humides et est l'une des meilleures fixatrices de l'azote. Toutes ses parties sont comestibles.
-Haricot mescal
-Le haricot mescal (Calia secundiflora) est une espèce d'arbuste originaire d'Amérique du Sud utilisé comme plante ornementale et plante hallucinogène.
+          <t>genre Phaseolus</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Haricot commun</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le haricot commun (Phaseolus vulgaris) est une espèce de plantes annuelle, originaire d'Amérique centrale et d'Amérique du Sud. Couramment cultivée, il joue un rôle important dans l'alimentation humaine comme source d'amidon (féculent) et de protéines. Le terme « haricot » désigne aussi ces parties consommées, les graines (haricots secs) ou les gousses, appelées alors haricot vert ou « mange-tout ».
 </t>
         </is>
       </c>
@@ -611,21 +603,705 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Les différentes espèces de « haricots »</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>genre Phaseolus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Haricot d'Espagne</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le haricot d'Espagne  (Phaseolus coccineus) est une plante herbacée vivace cultivée comme fleur de jardin, appréciée pour ses fleurs rouge écarlate s'épanouissant en été, ou pour certaines variétés comme légume pour leurs graines comestibles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les différentes espèces de « haricots »</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>genre Phaseolus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Haricot de Lima</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le haricot de Lima (Phaseolus lunatus) est une plante herbacée annuelle cultivée dans les pays chauds pour ses graines consommées comme légume à l'instar du haricot commun.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les différentes espèces de « haricots »</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>genre Phaseolus</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Haricot tépari</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le haricot tépari (Phaseolus acutifolius) est une plante herbacée de milieux secs, originaire du sud de l'Amérique du Nord et cultivé depuis  l'époque précolombienne par les populations amérindiennnes à des fins alimentaires et fourragères.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les différentes espèces de « haricots »</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>genre Vigna</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Haricot à l’œil noir, niébé</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le haricot à l’œil noir ou niébé est une plante annuelle ou vivace, du genre Vigna originaire d'Afrique tropicale, dont plusieurs sous-espèces sont cultivées comme plantes alimentaires pour leurs graines, proches des haricots, ou pour leurs gousses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les différentes espèces de « haricots »</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>genre Vigna</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Haricot adzuki</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le haricot adzuki (Vigna angularis) est une plante annuelle grimpante largement cultivée en Asie orientale pour ses graines comestibles. C'est l'une des espèces de haricots rouges les plus savoureuses et les plus consommées tant en cuisine qu'en pâtisserie asiatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les différentes espèces de « haricots »</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>genre Vigna</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Haricot caracolle</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le haricot caracolle (Vigna caracalla) est une plante grimpante originaire des régions tropicales d'Amérique centrale et d'Amérique du Sud, cultivée à des fins ornementales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les différentes espèces de « haricots »</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>genre Vigna</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Haricot-kilomètre</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La haricot kilomètre (Vigna unguiculata subsp. sesquipedalis) est une plante herbacée grimpante, cultivées comme plante potagère pour ses gousses et graines comestibles. Elle peut être plantée avec le maïs qui lui sert de tuteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les différentes espèces de « haricots »</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>genre Vigna</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Haricot mat</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le haricot mat, ou haricot papillon (Vigna aconitifolia), est une plante annuelle résistant à la sécheresse. Cette plante herbacée, aux petites fleurs jaunes et aux feuilles profondément lobées, est cultivée dans les régions arides de l'Asie méridionale pour ses minuscules graines comestibles, dont la couleur varie du brun clair au brun rougeâtre foncé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Les différentes espèces de « haricots »</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>genre Vigna</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Haricot mungo</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le haricot mungo, ou ambérique vert (Vigna radiata), est une plante annuelle originaire du sous-continent indien et cultivée comme plante potagère pour ses graines consommées comme légume à l'instar du haricot commun. C'est un ingrédient courant de la cuisine chinoise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Les différentes espèces de « haricots »</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>genre Vigna</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Haricot riz</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le haricot riz (Vigna umbellata) est une plante herbacée  originaire d'Asie tropicale, cultivée notamment en Chine pour ses petites graines à des fins alimentaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Les différentes espèces de « haricots »</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>genre Vigna</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Haricot urd</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le haricot urd (Vigna mungo) est une plante cultivée en Asie méridionale. Elle est largement utilisée pour préparer le dal à partir des graines décortiquées, entières ou cassées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Les différentes espèces de « haricots »</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Autres genres</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Haricot sabre</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le haricot sabre (Canavalia gladiata) est une plante cultivée dans les régions tropicales et subtropicales d'Afrique et d'Asie. Ses gousses vertes et ses graines immatures sont consommées comme légumes cuits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Les différentes espèces de « haricots »</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Autres genres</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Haricot ailé</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le haricot ailé, ou pois carré (Psophocarpus tetragonolobus), est une espèce de plante tropicale originaire de  Papouasie-Nouvelle-Guinée. Elle pousse abondamment dans les zones équatoriales chaudes et humides et est l'une des meilleures fixatrices de l'azote. Toutes ses parties sont comestibles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Les différentes espèces de « haricots »</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Autres genres</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Haricot mescal</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le haricot mescal (Calia secundiflora) est une espèce d'arbuste originaire d'Amérique du Sud utilisé comme plante ornementale et plante hallucinogène.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Haricot dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Foires
-Diverses événements sur le thème du haricot se déroulent régulièrement. Par exemple en France, la « foire aux haricots » d'Arpajon, la « fête du Haricot » à Soissons, la « fête de la mojhette » à Pont-l'Abbé-d'Arnoult et communes avoisinantes, etc.
-Objets
-En médecine, un haricot est un petit bassin portatif en forme de haricot, utilisé dans les hôpitaux et autres cabinet médicaux.
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Foires</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diverses événements sur le thème du haricot se déroulent régulièrement. Par exemple en France, la « foire aux haricots » d'Arpajon, la « fête du Haricot » à Soissons, la « fête de la mojhette » à Pont-l'Abbé-d'Arnoult et communes avoisinantes, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Haricot dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Objets</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En médecine, un haricot est un petit bassin portatif en forme de haricot, utilisé dans les hôpitaux et autres cabinet médicaux.
 Le jelly bean, ou bonbon haricot en français, est une confiserie à base de sucre, en forme de haricot sec et généralement parfumée aux fruits.
 Bohnanza est un jeu de société créé par Uwe Rosenberg en 1997, qui consiste à faire des bénéfices en vendant des haricots que l'on a préalablement plantés dans un de ses 2 champs.
-Arts visuels
-Le Mangeur de haricots, ou Le Mangeur de fèves (en italien : Mangiafagioli) est une peinture de l'artiste baroque italien Annibale Carracci, datant des années 1580-1590 et conservé dans la galerie du Palais Colonna de Rome.
-Fiction
-Jack et le Haricot magique (Jack and the Beanstalk) est un conte populaire anglais. Il a été adapté plusieurs fois, notamment dans :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Haricot dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Arts visuels</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Mangeur de haricots, ou Le Mangeur de fèves (en italien : Mangiafagioli) est une peinture de l'artiste baroque italien Annibale Carracci, datant des années 1580-1590 et conservé dans la galerie du Palais Colonna de Rome.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Haricot dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Fiction</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jack et le Haricot magique (Jack and the Beanstalk) est un conte populaire anglais. Il a été adapté plusieurs fois, notamment dans :
 Jack et le Haricot magique, film américain (1917) ;
 Jack and the Beanstalk, court métrage d'animation américain (1922) ;
 Jack et le Haricot magique, mini-série américaine (2001) ;
